--- a/fdata.xlsx
+++ b/fdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\Consec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A63CE8-9B57-4739-98A8-8FE460753598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE89854-8419-4370-A96F-E89F9D0643B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="2265" windowWidth="18990" windowHeight="12135" xr2:uid="{E86670AF-90C3-4297-98B2-4B479079E0F7}"/>
+    <workbookView xWindow="30240" yWindow="1350" windowWidth="27225" windowHeight="13920" xr2:uid="{E86670AF-90C3-4297-98B2-4B479079E0F7}"/>
   </bookViews>
   <sheets>
     <sheet name="section" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="loads" sheetId="3" r:id="rId3"/>
     <sheet name="combo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -485,7 +485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>

--- a/fdata.xlsx
+++ b/fdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\Consec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE89854-8419-4370-A96F-E89F9D0643B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B1A98-F6A4-4872-B553-CD3AA6032012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1350" windowWidth="27225" windowHeight="13920" xr2:uid="{E86670AF-90C3-4297-98B2-4B479079E0F7}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="27225" windowHeight="13920" xr2:uid="{E86670AF-90C3-4297-98B2-4B479079E0F7}"/>
   </bookViews>
   <sheets>
     <sheet name="section" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
